--- a/ContractRenewal_Data.xlsx
+++ b/ContractRenewal_Data.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C28CD1-73D3-4218-B495-0ECDC9931225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stacked data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="8">
   <si>
     <t>Supplier A</t>
   </si>
@@ -29,11 +31,26 @@
   <si>
     <t>Supplier C</t>
   </si>
+  <si>
+    <t>Trans time</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,21 +369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>6.15</v>
       </c>
@@ -388,7 +405,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6.22</v>
       </c>
@@ -399,7 +416,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>6.76</v>
       </c>
@@ -410,7 +427,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4.29</v>
       </c>
@@ -421,7 +438,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.08</v>
       </c>
@@ -432,7 +449,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4.13</v>
       </c>
@@ -443,7 +460,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5.04</v>
       </c>
@@ -454,7 +471,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3.6</v>
       </c>
@@ -465,7 +482,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6.51</v>
       </c>
@@ -476,7 +493,7 @@
         <v>6.1400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3.4</v>
       </c>
@@ -487,7 +504,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7.25</v>
       </c>
@@ -498,7 +515,7 @@
         <v>6.3100000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>4.97</v>
       </c>
@@ -509,7 +526,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>6.55</v>
       </c>
@@ -520,7 +537,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4.49</v>
       </c>
@@ -531,7 +548,7 @@
         <v>5.5600000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7.22</v>
       </c>
@@ -542,7 +559,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5.25</v>
       </c>
@@ -553,7 +570,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5.62</v>
       </c>
@@ -564,7 +581,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>8.7200000000000006</v>
       </c>
@@ -575,7 +592,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>4.9800000000000004</v>
       </c>
@@ -586,7 +603,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -597,7 +614,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -608,7 +625,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>6.3900000000000006</v>
       </c>
@@ -619,7 +636,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>9.01</v>
       </c>
@@ -630,7 +647,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>7.58</v>
       </c>
@@ -641,7 +658,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6.28</v>
       </c>
@@ -652,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>8.33</v>
       </c>
@@ -663,7 +680,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>5.43</v>
       </c>
@@ -674,7 +691,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4.74</v>
       </c>
@@ -685,7 +702,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>6.62</v>
       </c>
@@ -696,7 +713,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>6.38</v>
       </c>
@@ -707,7 +724,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4.25</v>
       </c>
@@ -718,7 +735,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.34</v>
       </c>
@@ -729,7 +746,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>5.4</v>
       </c>
@@ -740,7 +757,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>4.42</v>
       </c>
@@ -751,7 +768,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>5.47</v>
       </c>
@@ -762,7 +779,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5.3</v>
       </c>
@@ -773,7 +790,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>5.7700000000000005</v>
       </c>
@@ -784,7 +801,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -795,7 +812,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>4.7300000000000004</v>
       </c>
@@ -806,7 +823,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>5.37</v>
       </c>
@@ -817,7 +834,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -828,7 +845,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>3.92</v>
       </c>
@@ -839,7 +856,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>5.3500000000000005</v>
       </c>
@@ -850,7 +867,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>4.3899999999999997</v>
       </c>
@@ -861,7 +878,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>6.13</v>
       </c>
@@ -872,7 +889,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>6.72</v>
       </c>
@@ -883,7 +900,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>3.0500000000000003</v>
       </c>
@@ -894,7 +911,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>7.63</v>
       </c>
@@ -905,7 +922,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>5.05</v>
       </c>
@@ -916,7 +933,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>5.76</v>
       </c>
@@ -927,7 +944,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>6.37</v>
       </c>
@@ -938,7 +955,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>5.67</v>
       </c>
@@ -949,7 +966,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>7.9</v>
       </c>
@@ -960,7 +977,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>5.8500000000000005</v>
       </c>
@@ -971,7 +988,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>3.5</v>
       </c>
@@ -982,7 +999,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>7.94</v>
       </c>
@@ -993,7 +1010,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>6.43</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>3.92</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>5.5200000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>7.8</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>5.09</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>5.2700000000000005</v>
       </c>
@@ -1048,7 +1065,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>4.43</v>
       </c>
@@ -1059,7 +1076,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>7.09</v>
       </c>
@@ -1070,7 +1087,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>4.57</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>6.8900000000000006</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>4.71</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>7.6400000000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>3.33</v>
       </c>
@@ -1114,7 +1131,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>6.08</v>
       </c>
@@ -1125,7 +1142,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>7.9</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>5.03</v>
       </c>
@@ -1147,7 +1164,7 @@
         <v>8.52</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>7.11</v>
       </c>
@@ -1158,7 +1175,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>6.91</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>8.17</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>6.0200000000000005</v>
       </c>
@@ -1191,7 +1208,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>5.5200000000000005</v>
       </c>
@@ -1202,7 +1219,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>3.3200000000000003</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>4.95</v>
       </c>
@@ -1224,7 +1241,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>5.62</v>
       </c>
@@ -1235,7 +1252,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>5.67</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>8.64</v>
       </c>
@@ -1257,7 +1274,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>5.32</v>
       </c>
@@ -1268,7 +1285,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>6.6400000000000006</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>6.66</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>6.0200000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>5.19</v>
       </c>
@@ -1301,7 +1318,7 @@
         <v>7.0200000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>4.59</v>
       </c>
@@ -1312,7 +1329,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>3.37</v>
       </c>
@@ -1323,7 +1340,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>7.53</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>5.57</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>6.1400000000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>6.2</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>6.22</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>5.62</v>
       </c>
@@ -1378,7 +1395,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>6.99</v>
       </c>
@@ -1389,7 +1406,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>8.33</v>
       </c>
@@ -1400,7 +1417,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>4.3499999999999996</v>
       </c>
@@ -1411,7 +1428,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>4.63</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>6.33</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2.33</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>6.1400000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>3.68</v>
       </c>
@@ -1455,7 +1472,7 @@
         <v>7.0200000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>4.53</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>6.08</v>
       </c>
@@ -1477,7 +1494,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>6.92</v>
       </c>
@@ -1488,7 +1505,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>5.49</v>
       </c>
@@ -1499,7 +1516,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>6.34</v>
       </c>
@@ -1510,7 +1527,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -1521,7 +1538,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>4.47</v>
       </c>
@@ -1532,7 +1549,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>6.93</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>5.17</v>
       </c>
@@ -1554,7 +1571,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>6.6400000000000006</v>
       </c>
@@ -1565,7 +1582,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>6</v>
       </c>
@@ -1576,7 +1593,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>6.45</v>
       </c>
@@ -1587,7 +1604,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>6.6400000000000006</v>
       </c>
@@ -1598,7 +1615,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>5.82</v>
       </c>
@@ -1609,7 +1626,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>6.55</v>
       </c>
@@ -1620,7 +1637,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>7.6000000000000005</v>
       </c>
@@ -1631,7 +1648,7 @@
         <v>6.46</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>5.43</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>5.8500000000000005</v>
       </c>
@@ -1653,7 +1670,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>5.04</v>
       </c>
@@ -1664,7 +1681,7 @@
         <v>6.3900000000000006</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>5.68</v>
       </c>
@@ -1675,7 +1692,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>4.7699999999999996</v>
       </c>
@@ -1686,7 +1703,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>3.5700000000000003</v>
       </c>
@@ -1695,6 +1712,2912 @@
       </c>
       <c r="C121" s="1">
         <v>5.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F7E917-6BC1-4D62-A7A6-9E3EEC2E8441}">
+  <dimension ref="A1:B361"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242:B361"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6.15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>6.22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6.76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4.29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>7.08</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4.13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5.04</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3.6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>6.51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3.4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>7.25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4.97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6.55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4.49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7.22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5.25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5.62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6.39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>9.01</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>7.58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>6.28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8.33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5.43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4.74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>6.62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>6.38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>4.25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>4.34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5.4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>4.42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>5.47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>5.3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>5.77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5.37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>3.92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>5.35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>6.13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>6.72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>3.05</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>7.63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5.05</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>5.76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>6.37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>5.67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>7.9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>5.85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>3.5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>7.94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>6.43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>3.92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>7.8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>5.09</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>5.27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>4.43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>7.09</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>4.57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>6.89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>4.71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>3.33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>6.08</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>7.9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>5.03</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>7.11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>6.91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>8.17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>6.02</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>5.52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3.32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>4.95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5.62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5.67</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>8.64</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>5.32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>6.64</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>6.66</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5.19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>4.59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3.37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>7.53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5.57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>6.2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>6.22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>5.62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>6.99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>8.33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>4.63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>6.33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2.33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3.68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>4.53</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>6.08</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>6.92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>5.49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>6.34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>4.47</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>6.93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>5.17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>6.64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>6.45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>6.64</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>5.82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>6.55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>7.6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>5.43</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>5.85</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>5.04</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>5.68</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3.57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>7.94</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>7.36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>6.83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>7.3100000000000005</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>3.2600000000000002</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>7.33</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>5.73</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>5.59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>7.79</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>7.2700000000000005</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>7.36</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>7.41</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>6.3100000000000005</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <v>7.29</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>7.08</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>7.6400000000000006</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>7</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
+        <v>6.33</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
+        <v>4.29</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
+        <v>6.3900000000000006</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
